--- a/Assets/StreamingAssets/mapFile.xlsx
+++ b/Assets/StreamingAssets/mapFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\BICTestRepository\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A85974-ABFF-4073-9FEE-AB8BF6030C66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C63146-DB90-435A-A3C1-8D4612C55395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790" tabRatio="630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,8 +482,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -974,7 +974,9 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
       <c r="B21" s="5">
         <v>4</v>
       </c>
@@ -1177,7 +1179,9 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
       <c r="B30" s="5">
         <v>4</v>
       </c>
@@ -1415,7 +1419,9 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4">
+        <v>4</v>
+      </c>
       <c r="B42" s="5">
         <v>4</v>
       </c>
